--- a/docentes/Rivera Serra Alma Lilian - Estadisticos 20242.xlsx
+++ b/docentes/Rivera Serra Alma Lilian - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>Mat</t>
   </si>
@@ -73,10 +73,28 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ZUNO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
     <t>BONILLA</t>
+  </si>
+  <si>
+    <t>ALIN MARIEL</t>
+  </si>
+  <si>
+    <t>ERIKA VALERIA</t>
   </si>
   <si>
     <t>ANGEL ISMAEL</t>
@@ -577,16 +595,19 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>85.70999999999999</v>
+      </c>
+      <c r="H2">
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -600,16 +621,19 @@
         <v>25</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +701,7 @@
         <v>85.70999999999999</v>
       </c>
       <c r="H2">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -703,7 +727,7 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +737,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -748,16 +772,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920239</v>
+        <v>24330051920246</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -767,6 +791,52 @@
       </c>
       <c r="G2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>24330051920238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>24330051920239</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Rivera Serra Alma Lilian - Estadisticos 20242.xlsx
+++ b/docentes/Rivera Serra Alma Lilian - Estadisticos 20242.xlsx
@@ -813,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -836,7 +836,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
